--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181555.9046984813</v>
+        <v>171628.6231156342</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26276349.97614074</v>
+        <v>26211623.37235174</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14827216.71843358</v>
+        <v>14762490.11464459</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3578788.729545449</v>
+        <v>3621526.326482303</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.68867339138508</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>31.26683315033937</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="T2" t="n">
-        <v>18.68867339138501</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.26683315033937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.0287935858855</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.26683315033937</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>31.26683315033937</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31.26683315033937</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.51103305293342</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>27.53982663881893</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33.05581137020576</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>22.96512026740573</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>37.52930446208646</v>
       </c>
       <c r="J5" t="n">
-        <v>10.09069110280002</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>37.52930446208646</v>
-      </c>
-      <c r="S5" t="n">
-        <v>37.52930446208646</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,58 +986,58 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>37.52930446208646</v>
       </c>
-      <c r="G6" t="n">
+      <c r="U6" t="n">
+        <v>33.05581137020575</v>
+      </c>
+      <c r="V6" t="n">
         <v>37.52930446208646</v>
       </c>
-      <c r="H6" t="n">
+      <c r="W6" t="n">
         <v>37.52930446208646</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.81660357746247</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>26.23920779274327</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.99327657040322</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>45.40562735059407</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.322714328675332</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>45.40562735059407</v>
       </c>
       <c r="T8" t="n">
-        <v>33.6705622417279</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>45.40562735059407</v>
-      </c>
-      <c r="V8" t="n">
-        <v>45.40562735059407</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,58 +1220,58 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>33.73227489687343</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39.99327657040322</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>45.40562735059407</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
         <v>45.40562735059407</v>
       </c>
-      <c r="H9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>45.40562735059407</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.26100167352979</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1299,55 +1299,55 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.468277882965447</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G11" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>91.13088952452665</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>93.09630611656613</v>
@@ -1508,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>101.6640216487237</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>97.8528107985554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17.55899135242036</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="C14" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.0421087209539</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>34.16233727864572</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>195.6262652065167</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>94.78855424673355</v>
+        <v>48.65313496559077</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>59.22911908072491</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90177044380178</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T17" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.88581197849466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23.20403983092403</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.7508334693185</v>
+        <v>144.9770657628496</v>
       </c>
       <c r="U18" t="n">
         <v>195.3283754674364</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>48.65313496559077</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>199.0421087209539</v>
       </c>
       <c r="H20" t="n">
-        <v>161.483645379382</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90177044380177</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>8.329984257353992</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.82588865527179</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7.084115545444131</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U21" t="n">
         <v>195.3283754674364</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>33.32143611366087</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>17.55899135242044</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>214.4678952982346</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>75.17860225327648</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2383,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,22 +2399,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>13.77759954959266</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>28.34065282299919</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>97.88526065198775</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>101.5222039608942</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>138.2003791778776</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>139.8915423472193</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>87.84160536487848</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>104.7337711575492</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T27" t="n">
         <v>152.9662577680471</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>182.7569594314565</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>36.93356056609042</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>15.91250660700763</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.873787913766004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>230.8591410577268</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0.410366858644201</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V30" t="n">
-        <v>121.5446328644533</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>122.8627476682951</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I31" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>64.65637625382709</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>295.3356533235627</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>204.8842334365821</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,19 +3113,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58.58122432777904</v>
+        <v>0.410366858644201</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V33" t="n">
-        <v>21.61803577907896</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3198,13 +3198,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>55.51465019623033</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>49.11702611284426</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>201.5799585261426</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>234.5545577614422</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>31.44008814855449</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>112.6301575999286</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36.93356056609042</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>259.4219021912133</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>215.9765152878634</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.548978266901183</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>82.35921884675861</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7337711575492</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>152.9662577680471</v>
@@ -3644,13 +3644,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>142.1609746125713</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>53.91624944032942</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>22.88166847950853</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>168.6603865250518</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
-        <v>217.998705817402</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>48.19298769507705</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>21.61803577907896</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T42" t="n">
         <v>152.9662577680471</v>
@@ -3878,10 +3878,10 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>19.82453536339333</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.8407482881952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>251.3557338094136</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>160.0746864203316</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4067,10 +4067,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>22.06468129387058</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>152.9662577680471</v>
       </c>
       <c r="U45" t="n">
         <v>195.2992474636072</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>125.6863042715464</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>96.48325190194312</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>21.19401501305948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.501346652027149</v>
+        <v>34.08400639984473</v>
       </c>
       <c r="C2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="D2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="E2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="F2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="G2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="H2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="I2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="J2" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="K2" t="n">
-        <v>3.586988368706702</v>
+        <v>3.586988368706733</v>
       </c>
       <c r="L2" t="n">
-        <v>19.87903646972046</v>
+        <v>19.87903646972052</v>
       </c>
       <c r="M2" t="n">
-        <v>50.83320128855644</v>
+        <v>50.83320128855652</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78736610739242</v>
+        <v>81.78736610739253</v>
       </c>
       <c r="O2" t="n">
-        <v>107.8531422385465</v>
+        <v>107.8531422385467</v>
       </c>
       <c r="P2" t="n">
-        <v>116.1267737655657</v>
+        <v>116.1267737655658</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.1267737655657</v>
+        <v>116.1267737655658</v>
       </c>
       <c r="R2" t="n">
-        <v>84.54411401774811</v>
+        <v>116.1267737655658</v>
       </c>
       <c r="S2" t="n">
-        <v>52.96145426993057</v>
+        <v>84.54411401774826</v>
       </c>
       <c r="T2" t="n">
-        <v>34.0840063998447</v>
+        <v>84.54411401774826</v>
       </c>
       <c r="U2" t="n">
-        <v>34.0840063998447</v>
+        <v>84.54411401774826</v>
       </c>
       <c r="V2" t="n">
-        <v>34.0840063998447</v>
+        <v>84.54411401774826</v>
       </c>
       <c r="W2" t="n">
-        <v>34.0840063998447</v>
+        <v>52.96145426993068</v>
       </c>
       <c r="X2" t="n">
-        <v>34.0840063998447</v>
+        <v>52.96145426993068</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.501346652027149</v>
+        <v>52.96145426993068</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.0673326013575</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="C3" t="n">
-        <v>125.0673326013575</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="D3" t="n">
-        <v>125.0673326013575</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="E3" t="n">
-        <v>112.917036049958</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="F3" t="n">
-        <v>81.33437630214044</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="G3" t="n">
-        <v>49.7517165543229</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="H3" t="n">
-        <v>18.16905680650535</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="I3" t="n">
-        <v>18.16905680650535</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="J3" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="K3" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="L3" t="n">
-        <v>28.53233606375557</v>
+        <v>28.5323360637556</v>
       </c>
       <c r="M3" t="n">
-        <v>59.48650088259154</v>
+        <v>59.48650088259161</v>
       </c>
       <c r="N3" t="n">
-        <v>90.44066570142752</v>
+        <v>90.4406657014276</v>
       </c>
       <c r="O3" t="n">
-        <v>121.3948305202635</v>
+        <v>121.3948305202636</v>
       </c>
       <c r="P3" t="n">
-        <v>125.0673326013575</v>
+        <v>125.0673326013576</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.0673326013575</v>
+        <v>125.0673326013576</v>
       </c>
       <c r="R3" t="n">
-        <v>125.0673326013575</v>
+        <v>125.0673326013576</v>
       </c>
       <c r="S3" t="n">
-        <v>125.0673326013575</v>
+        <v>125.0673326013576</v>
       </c>
       <c r="T3" t="n">
-        <v>125.0673326013575</v>
+        <v>125.0673326013576</v>
       </c>
       <c r="U3" t="n">
-        <v>125.0673326013575</v>
+        <v>93.48467285354002</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0673326013575</v>
+        <v>61.90201310572244</v>
       </c>
       <c r="W3" t="n">
-        <v>125.0673326013575</v>
+        <v>30.31935335790486</v>
       </c>
       <c r="X3" t="n">
-        <v>125.0673326013575</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.0673326013575</v>
+        <v>2.501346652027152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="D4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="E4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="G4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="H4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="I4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="J4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="K4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="L4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="M4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="N4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="O4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="P4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="R4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="S4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="T4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="U4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="V4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="W4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="X4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.501346652027149</v>
+        <v>2.501346652027152</v>
       </c>
     </row>
     <row r="5">
@@ -4555,16 +4555,16 @@
         <v>74.3004411572621</v>
       </c>
       <c r="F5" t="n">
-        <v>74.3004411572621</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="G5" t="n">
-        <v>74.3004411572621</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="H5" t="n">
-        <v>51.10334997806439</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="I5" t="n">
-        <v>13.1949616325225</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="J5" t="n">
         <v>3.002344356966917</v>
@@ -4573,10 +4573,10 @@
         <v>8.579347327526918</v>
       </c>
       <c r="L5" t="n">
-        <v>30.4433262173086</v>
+        <v>30.44332621730859</v>
       </c>
       <c r="M5" t="n">
-        <v>67.59733763477414</v>
+        <v>67.59733763477419</v>
       </c>
       <c r="N5" t="n">
         <v>104.7513490522398</v>
@@ -4591,28 +4591,28 @@
         <v>150.1172178483459</v>
       </c>
       <c r="R5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="S5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="T5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="U5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="V5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="W5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="X5" t="n">
+        <v>150.1172178483459</v>
+      </c>
+      <c r="Y5" t="n">
         <v>112.208829502804</v>
-      </c>
-      <c r="S5" t="n">
-        <v>74.3004411572621</v>
-      </c>
-      <c r="T5" t="n">
-        <v>74.3004411572621</v>
-      </c>
-      <c r="U5" t="n">
-        <v>74.3004411572621</v>
-      </c>
-      <c r="V5" t="n">
-        <v>74.3004411572621</v>
-      </c>
-      <c r="W5" t="n">
-        <v>74.3004411572621</v>
-      </c>
-      <c r="X5" t="n">
-        <v>74.3004411572621</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>74.3004411572621</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="C6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="D6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="E6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="F6" t="n">
-        <v>85.70457920710369</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="G6" t="n">
-        <v>47.7961908615618</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="H6" t="n">
-        <v>9.887802516019917</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="I6" t="n">
         <v>3.002344356966917</v>
@@ -4655,13 +4655,13 @@
         <v>41.59280229228324</v>
       </c>
       <c r="M6" t="n">
-        <v>54.60199107769687</v>
+        <v>78.74681370974884</v>
       </c>
       <c r="N6" t="n">
-        <v>91.75600249516246</v>
+        <v>113.3971790766909</v>
       </c>
       <c r="O6" t="n">
-        <v>128.4760412668174</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="P6" t="n">
         <v>150.1172178483459</v>
@@ -4673,25 +4673,25 @@
         <v>150.1172178483459</v>
       </c>
       <c r="S6" t="n">
-        <v>123.6129675526456</v>
+        <v>150.1172178483459</v>
       </c>
       <c r="T6" t="n">
-        <v>123.6129675526456</v>
+        <v>112.208829502804</v>
       </c>
       <c r="U6" t="n">
-        <v>123.6129675526456</v>
+        <v>78.81912104805069</v>
       </c>
       <c r="V6" t="n">
-        <v>123.6129675526456</v>
+        <v>40.9107327025088</v>
       </c>
       <c r="W6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="X6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.6129675526456</v>
+        <v>3.002344356966917</v>
       </c>
     </row>
     <row r="7">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="C8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="D8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="E8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="F8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="G8" t="n">
-        <v>3.632450188047526</v>
+        <v>49.49672023915265</v>
       </c>
       <c r="H8" t="n">
         <v>3.632450188047526</v>
@@ -4810,10 +4810,10 @@
         <v>13.00760177093454</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58351986958229</v>
+        <v>39.58351986958228</v>
       </c>
       <c r="M8" t="n">
-        <v>81.98047155039913</v>
+        <v>81.98047155039912</v>
       </c>
       <c r="N8" t="n">
         <v>126.9320426274872</v>
@@ -4825,31 +4825,31 @@
         <v>181.6225094023763</v>
       </c>
       <c r="Q8" t="n">
-        <v>175.2359292724012</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="R8" t="n">
-        <v>175.2359292724012</v>
+        <v>181.6225094023763</v>
       </c>
       <c r="S8" t="n">
-        <v>129.3716592212961</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="T8" t="n">
-        <v>95.36099029025777</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49672023915265</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="V8" t="n">
-        <v>3.632450188047526</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="W8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="X8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.632450188047526</v>
+        <v>89.89396930016601</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="C9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="D9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="E9" t="n">
-        <v>147.5495044560395</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="F9" t="n">
-        <v>101.6852344049343</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="G9" t="n">
-        <v>55.8209643538292</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="H9" t="n">
-        <v>9.956694302724081</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="I9" t="n">
         <v>3.632450188047526</v>
@@ -4886,13 +4886,13 @@
         <v>3.632450188047526</v>
       </c>
       <c r="K9" t="n">
-        <v>14.66977561506492</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="L9" t="n">
-        <v>26.50640197727184</v>
+        <v>37.23412548306798</v>
       </c>
       <c r="M9" t="n">
-        <v>71.45797305435997</v>
+        <v>82.18569656015612</v>
       </c>
       <c r="N9" t="n">
         <v>116.4095441314481</v>
@@ -4910,25 +4910,25 @@
         <v>181.6225094023763</v>
       </c>
       <c r="S9" t="n">
-        <v>181.6225094023763</v>
+        <v>135.7582393512711</v>
       </c>
       <c r="T9" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="U9" t="n">
-        <v>181.6225094023763</v>
+        <v>89.89396930016601</v>
       </c>
       <c r="V9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="W9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="X9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.6225094023763</v>
+        <v>44.02969924906088</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="C10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="D10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="E10" t="n">
         <v>3.632450188047526</v>
@@ -4995,19 +4995,19 @@
         <v>5.115559160739896</v>
       </c>
       <c r="U10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="V10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="W10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="X10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.115559160739896</v>
+        <v>3.632450188047526</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>715.1114365838774</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="C11" t="n">
-        <v>715.1114365838774</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="D11" t="n">
-        <v>715.1114365838774</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="E11" t="n">
-        <v>715.1114365838774</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="F11" t="n">
-        <v>493.3371361049924</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="G11" t="n">
-        <v>271.5628356261074</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="H11" t="n">
-        <v>49.78853514722242</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I11" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J11" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422707</v>
       </c>
       <c r="K11" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L11" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723308</v>
       </c>
       <c r="M11" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543858</v>
       </c>
       <c r="N11" t="n">
-        <v>574.0010487547424</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O11" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P11" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q11" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R11" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="T11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="U11" t="n">
-        <v>878.2262298963846</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="V11" t="n">
-        <v>878.2262298963846</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="W11" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="X11" t="n">
-        <v>878.2262298963846</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="Y11" t="n">
-        <v>715.1114365838774</v>
+        <v>461.1131255556978</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>296.2554469463979</v>
+        <v>378.2913177311527</v>
       </c>
       <c r="C12" t="n">
-        <v>296.2554469463979</v>
+        <v>244.2962464800984</v>
       </c>
       <c r="D12" t="n">
-        <v>296.2554469463979</v>
+        <v>244.2962464800984</v>
       </c>
       <c r="E12" t="n">
-        <v>296.2554469463979</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="F12" t="n">
-        <v>187.2955671289025</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G12" t="n">
-        <v>81.05666125440382</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H12" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J12" t="n">
         <v>36.2691938677774</v>
       </c>
       <c r="K12" t="n">
-        <v>99.89115689943307</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L12" t="n">
         <v>204.1993668012281</v>
       </c>
       <c r="M12" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O12" t="n">
         <v>590.5890764168994</v>
@@ -5144,28 +5144,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R12" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S12" t="n">
-        <v>608.329838238913</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="T12" t="n">
-        <v>608.329838238913</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="U12" t="n">
-        <v>608.329838238913</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="V12" t="n">
-        <v>608.329838238913</v>
+        <v>518.5943503667393</v>
       </c>
       <c r="W12" t="n">
-        <v>395.0966699752418</v>
+        <v>518.5943503667393</v>
       </c>
       <c r="X12" t="n">
-        <v>395.0966699752418</v>
+        <v>518.5943503667393</v>
       </c>
       <c r="Y12" t="n">
-        <v>296.2554469463979</v>
+        <v>518.5943503667393</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J13" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K13" t="n">
         <v>37.55032788682519</v>
       </c>
       <c r="L13" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M13" t="n">
         <v>116.292169594557</v>
       </c>
       <c r="N13" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O13" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P13" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R13" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S13" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T13" t="n">
-        <v>35.3008794993624</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="V13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="W13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="X13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.3008794993624</v>
+        <v>17.5645245979277</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>878.2262298963846</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C14" t="n">
-        <v>715.1114365838774</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D14" t="n">
-        <v>715.1114365838774</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E14" t="n">
-        <v>715.1114365838774</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F14" t="n">
-        <v>493.3371361049924</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G14" t="n">
-        <v>271.5628356261074</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H14" t="n">
-        <v>49.78853514722242</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422704</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K14" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L14" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M14" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N14" t="n">
-        <v>574.0010487547424</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O14" t="n">
-        <v>713.5940480809664</v>
+        <v>713.5940480809667</v>
       </c>
       <c r="P14" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963846</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963846</v>
+        <v>440.3914601484834</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="Y14" t="n">
-        <v>878.2262298963846</v>
+        <v>239.3388250768128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.416633447085</v>
+        <v>267.2707216824932</v>
       </c>
       <c r="C15" t="n">
-        <v>243.4215621960307</v>
+        <v>267.2707216824932</v>
       </c>
       <c r="D15" t="n">
-        <v>126.5244044154231</v>
+        <v>267.2707216824932</v>
       </c>
       <c r="E15" t="n">
-        <v>126.5244044154231</v>
+        <v>232.7633102899218</v>
       </c>
       <c r="F15" t="n">
-        <v>17.56452459792769</v>
+        <v>123.8034304724263</v>
       </c>
       <c r="G15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J15" t="n">
         <v>36.2691938677774</v>
       </c>
       <c r="K15" t="n">
-        <v>99.89115689943307</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L15" t="n">
         <v>204.1993668012281</v>
       </c>
       <c r="M15" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N15" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O15" t="n">
         <v>590.5890764168994</v>
@@ -5384,25 +5384,25 @@
         <v>715.3219541700623</v>
       </c>
       <c r="S15" t="n">
-        <v>715.3219541700623</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="T15" t="n">
-        <v>715.3219541700623</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="U15" t="n">
-        <v>715.3219541700623</v>
+        <v>621.2852813250461</v>
       </c>
       <c r="V15" t="n">
-        <v>517.7196660826717</v>
+        <v>407.5737543180799</v>
       </c>
       <c r="W15" t="n">
-        <v>517.7196660826717</v>
+        <v>407.5737543180799</v>
       </c>
       <c r="X15" t="n">
-        <v>517.7196660826717</v>
+        <v>407.5737543180799</v>
       </c>
       <c r="Y15" t="n">
-        <v>517.7196660826717</v>
+        <v>407.5737543180799</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="C16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="D16" t="n">
-        <v>114.9711711608028</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="E16" t="n">
-        <v>114.9711711608028</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9711711608028</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="G16" t="n">
-        <v>114.9711711608028</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="H16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K16" t="n">
         <v>37.55032788682519</v>
       </c>
       <c r="L16" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M16" t="n">
         <v>116.292169594557</v>
       </c>
       <c r="N16" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O16" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="W16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="X16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.5628356261074</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="C17" t="n">
-        <v>271.5628356261074</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="D17" t="n">
-        <v>271.5628356261074</v>
+        <v>331.3902286369407</v>
       </c>
       <c r="E17" t="n">
-        <v>271.5628356261074</v>
+        <v>331.3902286369407</v>
       </c>
       <c r="F17" t="n">
-        <v>271.5628356261074</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="G17" t="n">
-        <v>271.5628356261074</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="H17" t="n">
         <v>49.78853514722242</v>
       </c>
       <c r="I17" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J17" t="n">
-        <v>61.76566646422704</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K17" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L17" t="n">
-        <v>271.1830965723306</v>
+        <v>271.1830965723307</v>
       </c>
       <c r="M17" t="n">
-        <v>420.4501281543855</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N17" t="n">
-        <v>574.0010487547424</v>
+        <v>574.0010487547426</v>
       </c>
       <c r="O17" t="n">
         <v>713.5940480809666</v>
       </c>
       <c r="P17" t="n">
-        <v>818.7605380598409</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q17" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R17" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S17" t="n">
-        <v>774.9388295947105</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="T17" t="n">
-        <v>558.8783603256941</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="U17" t="n">
-        <v>337.1040598468091</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="V17" t="n">
-        <v>337.1040598468091</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="W17" t="n">
-        <v>337.1040598468091</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="X17" t="n">
-        <v>337.1040598468091</v>
+        <v>553.1645291158258</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.5628356261074</v>
+        <v>553.1645291158258</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.00294866956813</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="C18" t="n">
-        <v>41.00294866956813</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D18" t="n">
-        <v>41.00294866956813</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E18" t="n">
-        <v>41.00294866956813</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F18" t="n">
-        <v>41.00294866956813</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G18" t="n">
-        <v>41.00294866956813</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I18" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J18" t="n">
         <v>36.2691938677774</v>
       </c>
       <c r="K18" t="n">
-        <v>99.89115689943307</v>
+        <v>99.8911568994331</v>
       </c>
       <c r="L18" t="n">
         <v>204.1993668012281</v>
       </c>
       <c r="M18" t="n">
-        <v>333.7616594659743</v>
+        <v>333.7616594659744</v>
       </c>
       <c r="N18" t="n">
-        <v>472.5885816838001</v>
+        <v>472.5885816838002</v>
       </c>
       <c r="O18" t="n">
         <v>590.5890764168994</v>
@@ -5618,28 +5618,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R18" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S18" t="n">
-        <v>608.329838238913</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T18" t="n">
-        <v>452.0158650375812</v>
+        <v>568.8804736015273</v>
       </c>
       <c r="U18" t="n">
-        <v>254.7144756765343</v>
+        <v>371.5790842404805</v>
       </c>
       <c r="V18" t="n">
-        <v>41.00294866956813</v>
+        <v>157.8675572335143</v>
       </c>
       <c r="W18" t="n">
-        <v>41.00294866956813</v>
+        <v>157.8675572335143</v>
       </c>
       <c r="X18" t="n">
-        <v>41.00294866956813</v>
+        <v>157.8675572335143</v>
       </c>
       <c r="Y18" t="n">
-        <v>41.00294866956813</v>
+        <v>157.8675572335143</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="C19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="D19" t="n">
-        <v>17.56452459792769</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="E19" t="n">
-        <v>17.56452459792769</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="F19" t="n">
-        <v>17.56452459792769</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="G19" t="n">
-        <v>17.56452459792769</v>
+        <v>161.5726047781188</v>
       </c>
       <c r="H19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J19" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K19" t="n">
         <v>37.55032788682519</v>
       </c>
       <c r="L19" t="n">
-        <v>75.23712329476716</v>
+        <v>75.23712329476717</v>
       </c>
       <c r="M19" t="n">
         <v>116.292169594557</v>
       </c>
       <c r="N19" t="n">
-        <v>159.5533166477872</v>
+        <v>159.5533166477873</v>
       </c>
       <c r="O19" t="n">
-        <v>191.2851869593632</v>
+        <v>191.2851869593633</v>
       </c>
       <c r="P19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="R19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="S19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="W19" t="n">
-        <v>210.7171855514427</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="X19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514428</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="C20" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="D20" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="E20" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="F20" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="G20" t="n">
-        <v>212.9033284597296</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H20" t="n">
-        <v>49.78853514722242</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I20" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J20" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422707</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L20" t="n">
         <v>271.1830965723307</v>
@@ -5764,40 +5764,40 @@
         <v>420.4501281543857</v>
       </c>
       <c r="N20" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547427</v>
       </c>
       <c r="O20" t="n">
-        <v>713.5940480809663</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P20" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598413</v>
       </c>
       <c r="Q20" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R20" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S20" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T20" t="n">
-        <v>878.2262298963844</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="U20" t="n">
-        <v>878.2262298963844</v>
+        <v>440.3914601484834</v>
       </c>
       <c r="V20" t="n">
-        <v>878.2262298963844</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="W20" t="n">
-        <v>656.4519294174995</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="X20" t="n">
-        <v>434.6776289386145</v>
+        <v>218.6171596695983</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.9033284597296</v>
+        <v>218.6171596695983</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>497.909449454757</v>
+        <v>25.97865011040648</v>
       </c>
       <c r="C21" t="n">
-        <v>363.9143782037027</v>
+        <v>25.97865011040648</v>
       </c>
       <c r="D21" t="n">
-        <v>247.0172204230951</v>
+        <v>25.97865011040648</v>
       </c>
       <c r="E21" t="n">
-        <v>126.5244044154231</v>
+        <v>25.97865011040648</v>
       </c>
       <c r="F21" t="n">
-        <v>17.56452459792769</v>
+        <v>25.97865011040648</v>
       </c>
       <c r="G21" t="n">
-        <v>17.56452459792769</v>
+        <v>25.97865011040648</v>
       </c>
       <c r="H21" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I21" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J21" t="n">
         <v>36.2691938677774</v>
@@ -5855,28 +5855,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R21" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S21" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T21" t="n">
-        <v>695.2108388158039</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U21" t="n">
-        <v>497.909449454757</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="V21" t="n">
-        <v>497.909449454757</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="W21" t="n">
-        <v>497.909449454757</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="X21" t="n">
-        <v>497.909449454757</v>
+        <v>185.3806097465765</v>
       </c>
       <c r="Y21" t="n">
-        <v>497.909449454757</v>
+        <v>25.97865011040648</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="C22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="D22" t="n">
-        <v>35.30087949936248</v>
+        <v>51.22254087435283</v>
       </c>
       <c r="E22" t="n">
-        <v>35.30087949936248</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F22" t="n">
-        <v>35.30087949936248</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G22" t="n">
-        <v>35.30087949936248</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J22" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K22" t="n">
         <v>37.55032788682519</v>
@@ -5937,25 +5937,25 @@
         <v>210.7171855514428</v>
       </c>
       <c r="S22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="T22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="U22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="V22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="W22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="X22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.30087949936248</v>
+        <v>210.7171855514428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>668.71845789335</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="C23" t="n">
-        <v>668.71845789335</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="D23" t="n">
-        <v>452.0842202183655</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="E23" t="n">
-        <v>37.7440047352622</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="F23" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G23" t="n">
         <v>37.7440047352622</v>
@@ -5998,10 +5998,10 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O23" t="n">
         <v>1464.838169622267</v>
@@ -6016,25 +6016,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1802.959711252748</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U23" t="n">
-        <v>1802.959711252748</v>
+        <v>1598.860707829247</v>
       </c>
       <c r="V23" t="n">
-        <v>1453.122156589229</v>
+        <v>1249.023153165728</v>
       </c>
       <c r="W23" t="n">
-        <v>1069.361855724397</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="X23" t="n">
-        <v>668.71845789335</v>
+        <v>865.2628523008966</v>
       </c>
       <c r="Y23" t="n">
-        <v>668.71845789335</v>
+        <v>865.2628523008966</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>468.3020036410396</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C24" t="n">
-        <v>334.3069323899853</v>
+        <v>172.153587964745</v>
       </c>
       <c r="D24" t="n">
-        <v>217.4097746093777</v>
+        <v>172.153587964745</v>
       </c>
       <c r="E24" t="n">
-        <v>96.91695860170569</v>
+        <v>51.66077195707297</v>
       </c>
       <c r="F24" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G24" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H24" t="n">
         <v>37.7440047352622</v>
@@ -6095,25 +6095,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S24" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T24" t="n">
-        <v>1186.671426824303</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U24" t="n">
-        <v>1186.671426824303</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V24" t="n">
-        <v>972.9598998173369</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W24" t="n">
-        <v>944.3329777739034</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X24" t="n">
-        <v>768.0069959127961</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y24" t="n">
-        <v>608.6050362766262</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1505.582891503404</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="C25" t="n">
-        <v>1505.582891503404</v>
+        <v>197.2386494123522</v>
       </c>
       <c r="D25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I25" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J25" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K25" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L25" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M25" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N25" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T25" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.20023676311</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="V25" t="n">
-        <v>1784.65255599453</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.582891503404</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="X25" t="n">
-        <v>1505.582891503404</v>
+        <v>296.1126500709257</v>
       </c>
       <c r="Y25" t="n">
-        <v>1505.582891503404</v>
+        <v>296.1126500709257</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1419.199410387917</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="C26" t="n">
-        <v>1279.603067784</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="D26" t="n">
-        <v>1279.603067784</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="E26" t="n">
-        <v>865.2628523008966</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F26" t="n">
-        <v>444.2324402545842</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G26" t="n">
         <v>37.7440047352622</v>
@@ -6229,19 +6229,19 @@
         <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L26" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M26" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N26" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
@@ -6256,22 +6256,22 @@
         <v>1802.959711252748</v>
       </c>
       <c r="T26" t="n">
-        <v>1802.959711252748</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U26" t="n">
-        <v>1802.959711252748</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="V26" t="n">
-        <v>1802.959711252748</v>
+        <v>983.8393058759204</v>
       </c>
       <c r="W26" t="n">
-        <v>1419.199410387917</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="X26" t="n">
-        <v>1419.199410387917</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="Y26" t="n">
-        <v>1419.199410387917</v>
+        <v>600.0790050110891</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>528.8275147358719</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="C27" t="n">
-        <v>440.0986204279138</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="D27" t="n">
-        <v>323.2014626473062</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E27" t="n">
-        <v>202.7086466396342</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F27" t="n">
         <v>202.7086466396342</v>
@@ -6332,25 +6332,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S27" t="n">
-        <v>1426.912595986079</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T27" t="n">
-        <v>1272.401224503203</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U27" t="n">
-        <v>1272.401224503203</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V27" t="n">
-        <v>1058.689697496237</v>
+        <v>804.7964703646428</v>
       </c>
       <c r="W27" t="n">
-        <v>845.4565292325657</v>
+        <v>591.5633021009716</v>
       </c>
       <c r="X27" t="n">
-        <v>669.1305473714585</v>
+        <v>591.5633021009716</v>
       </c>
       <c r="Y27" t="n">
-        <v>669.1305473714585</v>
+        <v>432.1613424648016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>391.1562882780136</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="C28" t="n">
-        <v>220.0629158397301</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="D28" t="n">
-        <v>220.0629158397301</v>
+        <v>75.05063156969698</v>
       </c>
       <c r="E28" t="n">
-        <v>220.0629158397301</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F28" t="n">
-        <v>220.0629158397301</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G28" t="n">
-        <v>53.8172437322396</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H28" t="n">
         <v>37.7440047352622</v>
@@ -6423,13 +6423,13 @@
         <v>578.8559946720579</v>
       </c>
       <c r="W28" t="n">
-        <v>578.8559946720579</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="X28" t="n">
-        <v>578.8559946720579</v>
+        <v>299.7863301809323</v>
       </c>
       <c r="Y28" t="n">
-        <v>578.8559946720579</v>
+        <v>75.05063156969698</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>442.2079346422017</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="C29" t="n">
-        <v>442.2079346422017</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="D29" t="n">
-        <v>37.7440047352622</v>
+        <v>876.0174483391891</v>
       </c>
       <c r="E29" t="n">
-        <v>37.7440047352622</v>
+        <v>461.6772328560858</v>
       </c>
       <c r="F29" t="n">
-        <v>37.7440047352622</v>
+        <v>40.64682080977332</v>
       </c>
       <c r="G29" t="n">
         <v>37.7440047352622</v>
@@ -6460,25 +6460,25 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I29" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J29" t="n">
         <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987905</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131299</v>
+        <v>594.3775951131297</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6496,19 +6496,19 @@
         <v>1887.20023676311</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.20023676311</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V29" t="n">
-        <v>1654.009185189649</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="W29" t="n">
-        <v>1654.009185189649</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="X29" t="n">
-        <v>1253.365787358601</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="Y29" t="n">
-        <v>852.4291143066912</v>
+        <v>1280.481378246129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>460.3647256779274</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C30" t="n">
-        <v>326.3696544268731</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="D30" t="n">
-        <v>326.3696544268731</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="E30" t="n">
-        <v>205.8768384192011</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F30" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
@@ -6575,19 +6575,19 @@
         <v>1272.401224503203</v>
       </c>
       <c r="U30" t="n">
-        <v>1272.401224503203</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V30" t="n">
-        <v>1149.628868074462</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W30" t="n">
-        <v>936.3956998107913</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X30" t="n">
-        <v>760.069717949684</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y30" t="n">
-        <v>600.667758313514</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="C31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="D31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="E31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="F31" t="n">
-        <v>414.2248687826492</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="G31" t="n">
-        <v>247.9791966751587</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H31" t="n">
-        <v>123.8754111516284</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I31" t="n">
         <v>37.7440047352622</v>
@@ -6648,25 +6648,25 @@
         <v>578.8559946720579</v>
       </c>
       <c r="S31" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="T31" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="U31" t="n">
-        <v>578.8559946720579</v>
+        <v>409.9737380035501</v>
       </c>
       <c r="V31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="W31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="X31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
       <c r="Y31" t="n">
-        <v>578.8559946720579</v>
+        <v>344.6642670400884</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1279.603067784</v>
+        <v>1034.15708518497</v>
       </c>
       <c r="C32" t="n">
-        <v>1279.603067784</v>
+        <v>624.0324944982405</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.603067784</v>
+        <v>624.0324944982405</v>
       </c>
       <c r="E32" t="n">
-        <v>865.2628523008966</v>
+        <v>624.0324944982405</v>
       </c>
       <c r="F32" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G32" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H32" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.74400473526225</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J32" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K32" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L32" t="n">
         <v>594.3775951131297</v>
       </c>
       <c r="M32" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N32" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P32" t="n">
         <v>1687.808675484973</v>
@@ -6730,22 +6730,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T32" t="n">
-        <v>1680.246465615047</v>
+        <v>1674.798689903264</v>
       </c>
       <c r="U32" t="n">
-        <v>1680.246465615047</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="V32" t="n">
-        <v>1680.246465615047</v>
+        <v>1417.917386049802</v>
       </c>
       <c r="W32" t="n">
-        <v>1680.246465615047</v>
+        <v>1034.15708518497</v>
       </c>
       <c r="X32" t="n">
-        <v>1279.603067784</v>
+        <v>1034.15708518497</v>
       </c>
       <c r="Y32" t="n">
-        <v>1279.603067784</v>
+        <v>1034.15708518497</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>577.2618834585351</v>
+        <v>172.153587964745</v>
       </c>
       <c r="C33" t="n">
-        <v>443.2668122074807</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="D33" t="n">
-        <v>326.3696544268731</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="E33" t="n">
-        <v>205.8768384192011</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="F33" t="n">
-        <v>96.91695860170569</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="G33" t="n">
-        <v>96.91695860170569</v>
+        <v>38.15851671369069</v>
       </c>
       <c r="H33" t="n">
         <v>37.7440047352622</v>
@@ -6815,16 +6815,16 @@
         <v>1075.129257368246</v>
       </c>
       <c r="V33" t="n">
-        <v>1053.292857591399</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W33" t="n">
-        <v>1053.292857591399</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X33" t="n">
-        <v>876.9668757302917</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y33" t="n">
-        <v>717.5649160941217</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C34" t="n">
-        <v>1666.493706635085</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D34" t="n">
-        <v>1506.999061957995</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E34" t="n">
-        <v>1346.088246826314</v>
+        <v>258.4505348632874</v>
       </c>
       <c r="F34" t="n">
-        <v>1346.088246826314</v>
+        <v>93.81940897387869</v>
       </c>
       <c r="G34" t="n">
-        <v>1346.088246826314</v>
+        <v>93.81940897387869</v>
       </c>
       <c r="H34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I34" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J34" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K34" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L34" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M34" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N34" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O34" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P34" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S34" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="T34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1837.587079073368</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1273.362937375244</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="C35" t="n">
-        <v>863.2383466885142</v>
+        <v>848.6963701615236</v>
       </c>
       <c r="D35" t="n">
-        <v>458.7744167815746</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="E35" t="n">
-        <v>458.7744167815746</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="F35" t="n">
-        <v>37.7440047352622</v>
+        <v>444.2324402545842</v>
       </c>
       <c r="G35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M35" t="n">
         <v>887.4914597655643</v>
@@ -6958,7 +6958,7 @@
         <v>1687.808675484973</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
@@ -6973,16 +6973,16 @@
         <v>1887.20023676311</v>
       </c>
       <c r="V35" t="n">
-        <v>1683.584117039734</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="W35" t="n">
-        <v>1683.584117039734</v>
+        <v>1650.276441044481</v>
       </c>
       <c r="X35" t="n">
-        <v>1683.584117039734</v>
+        <v>1249.633043213434</v>
       </c>
       <c r="Y35" t="n">
-        <v>1683.584117039734</v>
+        <v>848.6963701615236</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>623.88061763002</v>
+        <v>280.6989558038119</v>
       </c>
       <c r="C36" t="n">
-        <v>489.8855463789657</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="D36" t="n">
-        <v>372.9883885983581</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="E36" t="n">
-        <v>252.4955725906861</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5356927731907</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J36" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K36" t="n">
         <v>232.7978194276822</v>
@@ -7046,22 +7046,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T36" t="n">
-        <v>1313.144760026555</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U36" t="n">
-        <v>1313.144760026555</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V36" t="n">
-        <v>1313.144760026555</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W36" t="n">
-        <v>1099.911591762884</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X36" t="n">
-        <v>923.5856099017766</v>
+        <v>471.8585802365016</v>
       </c>
       <c r="Y36" t="n">
-        <v>764.1836502656066</v>
+        <v>312.4566206003316</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="C37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="D37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="E37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="F37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
         <v>56.4452522174457</v>
@@ -7128,19 +7128,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U37" t="n">
-        <v>578.8559946720579</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="V37" t="n">
-        <v>578.8559946720579</v>
+        <v>316.8136692263878</v>
       </c>
       <c r="W37" t="n">
-        <v>299.7863301809323</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="X37" t="n">
-        <v>299.7863301809323</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.05063156969698</v>
+        <v>37.74400473526219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1476.979057098621</v>
+        <v>730.1775826642075</v>
       </c>
       <c r="C38" t="n">
-        <v>1066.854466411891</v>
+        <v>730.1775826642075</v>
       </c>
       <c r="D38" t="n">
-        <v>662.3905365049513</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="E38" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F38" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G38" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H38" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526225</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512229</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K38" t="n">
         <v>342.4771847987903</v>
@@ -7183,19 +7183,19 @@
         <v>594.3775951131297</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655643</v>
+        <v>887.4914597655641</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P38" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R38" t="n">
         <v>1887.20023676311</v>
@@ -7204,22 +7204,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T38" t="n">
-        <v>1887.20023676311</v>
+        <v>1881.595208210684</v>
       </c>
       <c r="U38" t="n">
-        <v>1887.20023676311</v>
+        <v>1881.595208210684</v>
       </c>
       <c r="V38" t="n">
-        <v>1887.20023676311</v>
+        <v>1531.757653547165</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.20023676311</v>
+        <v>1531.757653547165</v>
       </c>
       <c r="X38" t="n">
-        <v>1887.20023676311</v>
+        <v>1131.114255716117</v>
       </c>
       <c r="Y38" t="n">
-        <v>1887.20023676311</v>
+        <v>730.1775826642075</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>226.7268229214317</v>
+        <v>401.1917718114839</v>
       </c>
       <c r="C39" t="n">
-        <v>226.7268229214317</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="D39" t="n">
-        <v>226.7268229214317</v>
+        <v>267.1967005604296</v>
       </c>
       <c r="E39" t="n">
-        <v>226.7268229214317</v>
+        <v>146.7038845527576</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5356927731907</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G39" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H39" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39707907527369</v>
+        <v>98.39707907527368</v>
       </c>
       <c r="K39" t="n">
         <v>232.7978194276822</v>
@@ -7280,25 +7280,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S39" t="n">
-        <v>1341.182798307179</v>
+        <v>1426.912595986079</v>
       </c>
       <c r="T39" t="n">
-        <v>1186.671426824303</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U39" t="n">
-        <v>989.3994596893464</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V39" t="n">
-        <v>775.6879326823802</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4547644187089</v>
+        <v>717.8207863081777</v>
       </c>
       <c r="X39" t="n">
-        <v>386.1287825576017</v>
+        <v>541.4948044470706</v>
       </c>
       <c r="Y39" t="n">
-        <v>226.7268229214317</v>
+        <v>541.4948044470706</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="C40" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="D40" t="n">
-        <v>37.7440047352622</v>
+        <v>419.361349994968</v>
       </c>
       <c r="E40" t="n">
-        <v>37.7440047352622</v>
+        <v>258.4505348632874</v>
       </c>
       <c r="F40" t="n">
-        <v>37.7440047352622</v>
+        <v>203.9896768427527</v>
       </c>
       <c r="G40" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H40" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I40" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J40" t="n">
         <v>56.4452522174457</v>
@@ -7362,22 +7362,22 @@
         <v>578.8559946720579</v>
       </c>
       <c r="T40" t="n">
-        <v>343.6001457803425</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="U40" t="n">
-        <v>60.85680117921021</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V40" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W40" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X40" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.7440047352622</v>
+        <v>578.8559946720579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1283.239222951408</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="C41" t="n">
-        <v>873.114632264678</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="D41" t="n">
-        <v>873.114632264678</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7744167815746</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F41" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G41" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H41" t="n">
         <v>37.7440047352622</v>
@@ -7417,13 +7417,13 @@
         <v>342.4771847987906</v>
       </c>
       <c r="L41" t="n">
-        <v>594.3775951131302</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M41" t="n">
-        <v>887.4914597655645</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N41" t="n">
-        <v>1187.216805582614</v>
+        <v>1187.216805582613</v>
       </c>
       <c r="O41" t="n">
         <v>1464.838169622267</v>
@@ -7441,22 +7441,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1887.20023676311</v>
+        <v>1716.836209970128</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.20023676311</v>
+        <v>1459.954906116666</v>
       </c>
       <c r="V41" t="n">
-        <v>1666.999523816239</v>
+        <v>1110.117351453147</v>
       </c>
       <c r="W41" t="n">
-        <v>1283.239222951408</v>
+        <v>726.3570505883156</v>
       </c>
       <c r="X41" t="n">
-        <v>1283.239222951408</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="Y41" t="n">
-        <v>1283.239222951408</v>
+        <v>325.7136527572681</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>577.2618834585351</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="C42" t="n">
-        <v>443.2668122074807</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="D42" t="n">
-        <v>326.3696544268731</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="E42" t="n">
-        <v>205.8768384192011</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="F42" t="n">
-        <v>96.91695860170569</v>
+        <v>86.42379028584509</v>
       </c>
       <c r="G42" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H42" t="n">
         <v>37.7440047352622</v>
@@ -7517,25 +7517,25 @@
         <v>1426.912595986079</v>
       </c>
       <c r="S42" t="n">
-        <v>1405.076196209232</v>
+        <v>1341.182798307179</v>
       </c>
       <c r="T42" t="n">
-        <v>1250.564824726356</v>
+        <v>1186.671426824303</v>
       </c>
       <c r="U42" t="n">
-        <v>1053.292857591399</v>
+        <v>989.3994596893464</v>
       </c>
       <c r="V42" t="n">
-        <v>1053.292857591399</v>
+        <v>775.6879326823802</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.292857591399</v>
+        <v>562.4547644187089</v>
       </c>
       <c r="X42" t="n">
-        <v>876.9668757302917</v>
+        <v>386.1287825576017</v>
       </c>
       <c r="Y42" t="n">
-        <v>717.5649160941217</v>
+        <v>226.7268229214317</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1505.582891503404</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C43" t="n">
-        <v>1505.582891503404</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I43" t="n">
-        <v>1346.088246826314</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J43" t="n">
-        <v>1364.789494308498</v>
+        <v>56.4452522174457</v>
       </c>
       <c r="K43" t="n">
-        <v>1427.468776269658</v>
+        <v>119.1245341786054</v>
       </c>
       <c r="L43" t="n">
-        <v>1519.788525527848</v>
+        <v>211.444283436796</v>
       </c>
       <c r="M43" t="n">
-        <v>1618.446361557358</v>
+        <v>310.1021194663056</v>
       </c>
       <c r="N43" t="n">
-        <v>1717.940632749101</v>
+        <v>409.5963906580484</v>
       </c>
       <c r="O43" t="n">
-        <v>1801.612894797479</v>
+        <v>493.2686527064269</v>
       </c>
       <c r="P43" t="n">
-        <v>1865.488871500339</v>
+        <v>557.1446294092871</v>
       </c>
       <c r="Q43" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="R43" t="n">
-        <v>1887.20023676311</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="S43" t="n">
-        <v>1887.20023676311</v>
+        <v>558.8312114767111</v>
       </c>
       <c r="T43" t="n">
-        <v>1887.20023676311</v>
+        <v>558.8312114767111</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.20023676311</v>
+        <v>276.0878668755788</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.20023676311</v>
+        <v>276.0878668755788</v>
       </c>
       <c r="W43" t="n">
-        <v>1887.20023676311</v>
+        <v>276.0878668755788</v>
       </c>
       <c r="X43" t="n">
-        <v>1648.856374622794</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="Y43" t="n">
-        <v>1505.582891503404</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291.6386853508315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="C44" t="n">
-        <v>291.6386853508315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="D44" t="n">
-        <v>291.6386853508315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="E44" t="n">
-        <v>291.6386853508315</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I44" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J44" t="n">
         <v>151.4749218512229</v>
@@ -7663,37 +7663,37 @@
         <v>1187.216805582613</v>
       </c>
       <c r="O44" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P44" t="n">
         <v>1687.808675484973</v>
       </c>
       <c r="Q44" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R44" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S44" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T44" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U44" t="n">
-        <v>1887.20023676311</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="V44" t="n">
-        <v>1887.20023676311</v>
+        <v>983.8393058759204</v>
       </c>
       <c r="W44" t="n">
-        <v>1503.439935898278</v>
+        <v>600.0790050110891</v>
       </c>
       <c r="X44" t="n">
-        <v>1102.796538067231</v>
+        <v>199.4356071800416</v>
       </c>
       <c r="Y44" t="n">
-        <v>701.8598650153209</v>
+        <v>37.7440047352622</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.3764864545871</v>
+        <v>380.9256665614703</v>
       </c>
       <c r="C45" t="n">
-        <v>406.3814152035328</v>
+        <v>380.9256665614703</v>
       </c>
       <c r="D45" t="n">
-        <v>289.4842574229252</v>
+        <v>264.0285087808627</v>
       </c>
       <c r="E45" t="n">
-        <v>168.9914414152531</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="F45" t="n">
-        <v>60.03156159775773</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G45" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H45" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28095199337145</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J45" t="n">
-        <v>98.39707907527368</v>
+        <v>98.39707907527369</v>
       </c>
       <c r="K45" t="n">
         <v>232.7978194276822</v>
@@ -7757,22 +7757,22 @@
         <v>1426.912595986079</v>
       </c>
       <c r="T45" t="n">
-        <v>1426.912595986079</v>
+        <v>1272.401224503203</v>
       </c>
       <c r="U45" t="n">
-        <v>1229.640628851122</v>
+        <v>1075.129257368246</v>
       </c>
       <c r="V45" t="n">
-        <v>1229.640628851122</v>
+        <v>861.4177303612801</v>
       </c>
       <c r="W45" t="n">
-        <v>1016.407460587451</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="X45" t="n">
-        <v>840.0814787263437</v>
+        <v>648.1845620976088</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.6795190901737</v>
+        <v>521.2286991970569</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>296.1126500709257</v>
+        <v>369.7481923052262</v>
       </c>
       <c r="C46" t="n">
         <v>198.6548198669427</v>
@@ -7791,19 +7791,19 @@
         <v>198.6548198669427</v>
       </c>
       <c r="E46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="F46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="G46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="I46" t="n">
-        <v>37.74400473526219</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J46" t="n">
         <v>56.4452522174457</v>
@@ -7839,19 +7839,19 @@
         <v>578.8559946720579</v>
       </c>
       <c r="U46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="V46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="W46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="X46" t="n">
-        <v>296.1126500709257</v>
+        <v>578.8559946720579</v>
       </c>
       <c r="Y46" t="n">
-        <v>296.1126500709257</v>
+        <v>557.4478986992706</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>13.11771793070513</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>13.4311208673731</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>42.75293345816452</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.51103305293341</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.244671795650376</v>
+        <v>8.244671795650362</v>
       </c>
       <c r="R3" t="n">
         <v>35.4354267849247</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.93685975466214</v>
+        <v>28.93685975466213</v>
       </c>
       <c r="K4" t="n">
-        <v>15.28206119291174</v>
+        <v>15.28206119291173</v>
       </c>
       <c r="L4" t="n">
-        <v>7.321586928322439</v>
+        <v>7.321586928322425</v>
       </c>
       <c r="M4" t="n">
-        <v>6.386652893333078</v>
+        <v>6.386652893333064</v>
       </c>
       <c r="N4" t="n">
-        <v>3.02035014633109</v>
+        <v>3.020350146331076</v>
       </c>
       <c r="O4" t="n">
-        <v>11.09968222972719</v>
+        <v>11.09968222972717</v>
       </c>
       <c r="P4" t="n">
-        <v>17.29577477735962</v>
+        <v>17.2957747773596</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.71515254876324</v>
+        <v>34.71515254876323</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.09069110280002</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.579696329610385</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.51258854612288</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>13.70815661144291</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>5.808809210202178</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.25063875717578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>27.80579301341917</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>13.42337108707594</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4.943103517458681</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>3.878875624559463</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.5722022158511066</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>8.838421371704094</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>15.36087546843633</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.37552856090301</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.530866342333198</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.322714328675332</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.61802642167716</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.18354252066408</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.748906304207694</v>
       </c>
       <c r="R9" t="n">
         <v>33.24871511996928</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.84929912863322</v>
       </c>
       <c r="K10" t="n">
         <v>11.85155781106148</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.931723680530631</v>
       </c>
       <c r="M10" t="n">
         <v>1.7581576027819</v>
@@ -8625,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.926171542637363</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>13.7246153883036</v>
       </c>
       <c r="Q10" t="n">
         <v>32.24266689538117</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.150849970123488</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.352495282391885</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>12.82588865527179</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>387.4302944764595</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>374.7565116295232</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22567,10 +22567,10 @@
         <v>300.5346997991464</v>
       </c>
       <c r="I2" t="n">
-        <v>58.1407208291859</v>
+        <v>58.14072082918589</v>
       </c>
       <c r="J2" t="n">
-        <v>13.11771793070515</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.43112086737312</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.48610030782516</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>86.49693591874623</v>
+        <v>86.49693591874617</v>
       </c>
       <c r="T2" t="n">
-        <v>198.190531183956</v>
+        <v>216.879204575341</v>
       </c>
       <c r="U2" t="n">
         <v>254.4331381832263</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>348.6558647058437</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.6604731710514</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22634,19 +22634,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>107.2590942617098</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>76.60344786898109</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>74.27383841912726</v>
+        <v>105.5406715694666</v>
       </c>
       <c r="H3" t="n">
-        <v>35.10735041885258</v>
+        <v>66.37418356919193</v>
       </c>
       <c r="I3" t="n">
-        <v>7.473610219015809</v>
+        <v>7.473610219015805</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22682,16 +22682,16 @@
         <v>156.2186326739773</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3523330170228</v>
+        <v>164.0854998666834</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>180.3075785865571</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>179.8340034306951</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>147.0228954036772</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>368.5896634057581</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -22795,13 +22795,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>383.7642965556436</v>
       </c>
       <c r="G5" t="n">
         <v>403.8959782144399</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2043248033791</v>
+        <v>300.1694450707848</v>
       </c>
       <c r="I5" t="n">
         <v>19.2364393950343</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.579696329610385</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.983284084036413</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.42174720213734</v>
+        <v>116.9510516642238</v>
       </c>
       <c r="T5" t="n">
         <v>216.7230808039846</v>
@@ -22852,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>359.3980018593043</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>70.340976557234</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>67.99228462148537</v>
+        <v>105.5215890835718</v>
       </c>
       <c r="H6" t="n">
-        <v>28.66058246701623</v>
+        <v>66.1898869291027</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.81660357746247</v>
       </c>
       <c r="J6" t="n">
-        <v>13.70815661144291</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.808809210202178</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.25063875717578</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>73.26666435105959</v>
+        <v>99.50587214380286</v>
       </c>
       <c r="T6" t="n">
-        <v>156.1417168646031</v>
+        <v>118.6124124025166</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3510775903192</v>
+        <v>162.2952662201134</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>174.0451072748101</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>173.5715321189481</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -22965,28 +22965,28 @@
         <v>105.1325298071908</v>
       </c>
       <c r="J7" t="n">
-        <v>27.80579301341917</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>13.42337108707594</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.943103517458681</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.878875624559463</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5722022158511066</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.838421371704094</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>15.36087546843633</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37552856090301</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>69.39351739781233</v>
@@ -23035,16 +23035,16 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>403.865817831984</v>
+        <v>363.8725412615807</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8605650539583</v>
+        <v>254.4549377033642</v>
       </c>
       <c r="I8" t="n">
         <v>55.60298571248951</v>
       </c>
       <c r="J8" t="n">
-        <v>7.530866342333198</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>38.61802642167716</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>70.85814459841581</v>
       </c>
       <c r="T8" t="n">
-        <v>182.920491488056</v>
+        <v>216.5910537297839</v>
       </c>
       <c r="U8" t="n">
-        <v>209.0222447977619</v>
+        <v>254.427872148356</v>
       </c>
       <c r="V8" t="n">
-        <v>300.9335517662901</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>334.5170705055891</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23108,22 +23108,22 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>85.55561295072187</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>62.46465366872639</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>60.0998245057043</v>
+        <v>65.51217528589515</v>
       </c>
       <c r="H9" t="n">
-        <v>20.62840793615708</v>
+        <v>66.03403528675115</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.26100167352979</v>
       </c>
       <c r="J9" t="n">
-        <v>12.18354252066408</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,22 +23144,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.748906304207694</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>99.20613022492962</v>
+        <v>53.80050287433556</v>
       </c>
       <c r="T9" t="n">
-        <v>156.076672514321</v>
+        <v>110.671045163727</v>
       </c>
       <c r="U9" t="n">
         <v>195.3500159306301</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>166.1687843863024</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -23187,7 +23187,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>157.8334290973983</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -23202,13 +23202,13 @@
         <v>104.7256786086731</v>
       </c>
       <c r="J10" t="n">
-        <v>26.84929912863322</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2.931723680530631</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -23217,10 +23217,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6.926171542637363</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>13.7246153883036</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>235.6675363340381</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9511994010516</v>
+        <v>278.4829215180862</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23269,16 +23269,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>197.2635504517532</v>
+        <v>197.2635504517531</v>
       </c>
       <c r="G11" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H11" t="n">
-        <v>74.00791599383146</v>
+        <v>74.0079159938314</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.8998645763261</v>
@@ -23317,16 +23317,16 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>288.7918083316565</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>235.4436609420088</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>109.9103900881728</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.95512924125288</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23430,7 +23430,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3954071210432</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
         <v>142.5679993783892</v>
@@ -23439,7 +23439,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
-        <v>7.352495282391885</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
         <v>234.4892545020035</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134357</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937484</v>
       </c>
       <c r="C14" t="n">
-        <v>244.5396994004805</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>183.6944827100391</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>74.00791599383146</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243194</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>147.2970703959302</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>85.12555056894956</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>154.7508334693185</v>
@@ -23633,7 +23633,7 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V15" t="n">
-        <v>15.94814653037977</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>63.11114398358552</v>
+        <v>109.2465632647283</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23670,13 +23670,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H16" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
-        <v>7.352495282391885</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.150849970123488</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>56.38567239618433</v>
@@ -23737,19 +23737,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337738</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>357.5909888451244</v>
       </c>
       <c r="G17" t="n">
         <v>403.2510401841353</v>
       </c>
       <c r="H17" t="n">
-        <v>74.00791599383149</v>
+        <v>74.0079159938314</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U17" t="n">
-        <v>34.82213246243202</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.0414943428962</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -23828,7 +23828,7 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H18" t="n">
-        <v>39.65317545898733</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>9.773767706468817</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>109.2465632647283</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23907,7 +23907,7 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H19" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.43258009724633</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.150849970123488</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>56.38567239618433</v>
@@ -23955,7 +23955,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>44.73928917493356</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.2510401841353</v>
+        <v>204.2089314631814</v>
       </c>
       <c r="H20" t="n">
-        <v>132.0808280885456</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T20" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3786899365281</v>
+        <v>34.82213246243194</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W20" t="n">
-        <v>160.366140382087</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>177.0804063786409</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>105.1765168157536</v>
       </c>
       <c r="H21" t="n">
-        <v>62.85721528991137</v>
+        <v>54.52723103255737</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T21" t="n">
-        <v>147.6667179238743</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,10 +24132,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>125.9802708667029</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24144,13 +24144,13 @@
         <v>164.9543984734636</v>
       </c>
       <c r="H22" t="n">
-        <v>125.0090080259688</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I22" t="n">
         <v>96.43258009724633</v>
       </c>
       <c r="J22" t="n">
-        <v>7.352495282391878</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.150849970123481</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>56.38567239618433</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T22" t="n">
         <v>234.4892545020035</v>
@@ -24211,16 +24211,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>185.9513953096354</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>285.0899515417858</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3124908149276</v>
+        <v>179.1338885616511</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24287,22 +24287,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>94.09268146972781</v>
       </c>
       <c r="G24" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>182.7601837580353</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>71.4971780619129</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.6246836489791</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24445,19 +24445,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>267.8229656019849</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>270.305270981053</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
         <v>285.0899515417858</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>44.81351517366527</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>28.81745230543999</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>122.3681464142733</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
-        <v>123.3553376883547</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I28" t="n">
         <v>85.27009235220248</v>
@@ -24663,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>399.5497632503627</v>
       </c>
       <c r="H29" t="n">
         <v>285.0899515417858</v>
@@ -24736,19 +24736,19 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>115.4800380591573</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24767,16 +24767,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>118.8775209889511</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24815,10 +24815,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>90.02977887244317</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16.40509662706725</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.9032904027983</v>
@@ -24897,7 +24897,7 @@
         <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>206.4905113560462</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24919,22 +24919,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>121.4844546022866</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>5.393297954665456</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>104.7337711575492</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>58.17085746913484</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>189.9563759578176</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2678442953623</v>
+        <v>83.753194099132</v>
       </c>
       <c r="I34" t="n">
         <v>85.27009235220248</v>
@@ -25128,7 +25128,7 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T34" t="n">
-        <v>183.7862642899541</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
         <v>279.9159111551209</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>285.0899515417858</v>
@@ -25213,16 +25213,16 @@
         <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
-        <v>144.7592205907415</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>145.3681400947409</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>107.4599141606763</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H36" t="n">
         <v>58.58122432777904</v>
@@ -25286,13 +25286,13 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>40.33610016811846</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>195.2992474636072</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3342837292719</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
         <v>85.27009235220248</v>
@@ -25368,7 +25368,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9159111551209</v>
+        <v>20.49400896390756</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>194.2202980404088</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>204.7285531243464</v>
       </c>
       <c r="U38" t="n">
         <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25.51106217256185</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7337711575492</v>
       </c>
       <c r="H39" t="n">
         <v>58.58122432777904</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>68.93986196846322</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -25554,16 +25554,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>109.0685651901852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>139.2678442953623</v>
@@ -25602,13 +25602,13 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V40" t="n">
-        <v>248.2652191303647</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25630,22 +25630,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2775313912475</v>
+        <v>41.61714486619579</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>128.3404732994821</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25709,22 +25709,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7337711575492</v>
+        <v>56.54078346247216</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>63.25446392303195</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,10 +25766,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25836,13 +25836,13 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S43" t="n">
-        <v>167.1934341018228</v>
+        <v>147.3688987384295</v>
       </c>
       <c r="T43" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.64759333692774</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25876,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>165.4643741164357</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.4235511641288</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>236.8526199010592</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>82.66908986367864</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>58.58122432777904</v>
@@ -25997,22 +25997,22 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
-        <v>152.9662577680471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>32.12163576826191</v>
       </c>
     </row>
     <row r="46">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.89918681195753</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26079,7 +26079,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>201.2943266120635</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>144452.3046629251</v>
+        <v>155256.9601907474</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>142784.4526425069</v>
+        <v>159701.8206321601</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>153711.0727999459</v>
+        <v>164320.6913798468</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>268186.2486132868</v>
+        <v>269446.7343533685</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>266711.0776143236</v>
+        <v>269446.7343533685</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>268110.717716402</v>
+        <v>269446.7343533685</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>267801.9129145417</v>
+        <v>269446.7343533685</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424077.7122991998</v>
+        <v>424077.7122991999</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424077.7122991999</v>
+        <v>424077.7122991998</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424077.7122991999</v>
+        <v>424077.7122991998</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52812.64162459329</v>
+        <v>55745.33383928791</v>
       </c>
       <c r="C2" t="n">
-        <v>53045.90489967178</v>
+        <v>57637.76192543483</v>
       </c>
       <c r="D2" t="n">
-        <v>56672.3990889925</v>
+        <v>59552.15270353702</v>
       </c>
       <c r="E2" t="n">
-        <v>99763.35404062913</v>
+        <v>100105.4858843656</v>
       </c>
       <c r="F2" t="n">
-        <v>99362.95048376766</v>
+        <v>100105.4858843656</v>
       </c>
       <c r="G2" t="n">
-        <v>99742.85279718899</v>
+        <v>100105.4858843656</v>
       </c>
       <c r="H2" t="n">
-        <v>99659.03435096971</v>
+        <v>100105.4858843656</v>
       </c>
       <c r="I2" t="n">
         <v>157989.7359546038</v>
@@ -26343,7 +26343,7 @@
         <v>157989.7359546038</v>
       </c>
       <c r="L2" t="n">
-        <v>157989.7359546039</v>
+        <v>157989.7359546038</v>
       </c>
       <c r="M2" t="n">
         <v>157989.7359546038</v>
@@ -26355,7 +26355,7 @@
         <v>157989.7359546038</v>
       </c>
       <c r="P2" t="n">
-        <v>157989.7359546038</v>
+        <v>157989.7359546039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180510.448877937</v>
+        <v>180510.4488779371</v>
       </c>
       <c r="C3" t="n">
-        <v>10101.79231064538</v>
+        <v>10101.79231064532</v>
       </c>
       <c r="D3" t="n">
         <v>8871.778406779136</v>
@@ -26389,16 +26389,16 @@
         <v>222021.1128848245</v>
       </c>
       <c r="J3" t="n">
-        <v>8180.779292787414</v>
+        <v>8180.779292787393</v>
       </c>
       <c r="K3" t="n">
-        <v>1611.759716561756</v>
+        <v>1611.759716561718</v>
       </c>
       <c r="L3" t="n">
-        <v>1993.426436175252</v>
+        <v>1993.42643617531</v>
       </c>
       <c r="M3" t="n">
-        <v>43399.10839049721</v>
+        <v>43399.1083904972</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2713.633942864275</v>
+        <v>5646.326157558891</v>
       </c>
       <c r="C4" t="n">
-        <v>425.2702943250788</v>
+        <v>5017.127320088123</v>
       </c>
       <c r="D4" t="n">
-        <v>1623.377737702094</v>
+        <v>4503.131352246652</v>
       </c>
       <c r="E4" t="n">
-        <v>556.0539365864356</v>
+        <v>898.1857803228766</v>
       </c>
       <c r="F4" t="n">
-        <v>155.650379725</v>
+        <v>898.1857803228766</v>
       </c>
       <c r="G4" t="n">
-        <v>535.5526931462953</v>
+        <v>898.1857803228766</v>
       </c>
       <c r="H4" t="n">
-        <v>451.7342469270277</v>
+        <v>898.1857803228766</v>
       </c>
       <c r="I4" t="n">
         <v>331.9759880256581</v>
@@ -26472,10 +26472,10 @@
         <v>39375.29454046341</v>
       </c>
       <c r="C5" t="n">
-        <v>39949.45546466368</v>
+        <v>39949.45546466367</v>
       </c>
       <c r="D5" t="n">
-        <v>40591.8881102477</v>
+        <v>40591.88811024769</v>
       </c>
       <c r="E5" t="n">
         <v>20886.45015162826</v>
@@ -26484,7 +26484,7 @@
         <v>20886.45015162826</v>
       </c>
       <c r="G5" t="n">
-        <v>20886.45015162825</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="H5" t="n">
         <v>20886.45015162826</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-169786.7357366714</v>
+        <v>-171122.1631731051</v>
       </c>
       <c r="C6" t="n">
-        <v>2569.386830037649</v>
+        <v>1243.919541425967</v>
       </c>
       <c r="D6" t="n">
-        <v>5585.35483426357</v>
+        <v>4269.963286589174</v>
       </c>
       <c r="E6" t="n">
-        <v>-96537.94535738333</v>
+        <v>-97639.89830936919</v>
       </c>
       <c r="F6" t="n">
-        <v>78320.8499524144</v>
+        <v>77218.89700042862</v>
       </c>
       <c r="G6" t="n">
-        <v>78320.84995241443</v>
+        <v>77218.89700042865</v>
       </c>
       <c r="H6" t="n">
-        <v>78320.84995241443</v>
+        <v>77218.89700042864</v>
       </c>
       <c r="I6" t="n">
-        <v>-105073.4740574892</v>
+        <v>-105870.7730617369</v>
       </c>
       <c r="J6" t="n">
-        <v>108766.8595345478</v>
+        <v>107969.5605303001</v>
       </c>
       <c r="K6" t="n">
-        <v>115335.8791107734</v>
+        <v>114538.5801065259</v>
       </c>
       <c r="L6" t="n">
-        <v>114954.2123911601</v>
+        <v>114156.9133869123</v>
       </c>
       <c r="M6" t="n">
-        <v>73548.53043683807</v>
+        <v>72751.23143259037</v>
       </c>
       <c r="N6" t="n">
-        <v>116947.6388273353</v>
+        <v>116150.3398230875</v>
       </c>
       <c r="O6" t="n">
-        <v>116947.6388273353</v>
+        <v>116150.3398230876</v>
       </c>
       <c r="P6" t="n">
-        <v>116947.6388273353</v>
+        <v>116150.3398230876</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606777</v>
+        <v>176.4528020606778</v>
       </c>
       <c r="C3" t="n">
         <v>185.3244840994871</v>
@@ -26746,13 +26746,13 @@
         <v>192.8268792353934</v>
       </c>
       <c r="E3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="G3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="H3" t="n">
         <v>345.7528191377622</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="C4" t="n">
         <v>37.52930446208646</v>
@@ -26798,16 +26798,16 @@
         <v>45.40562735059407</v>
       </c>
       <c r="E4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I4" t="n">
         <v>471.8000591907775</v>
@@ -26822,16 +26822,16 @@
         <v>471.8000591907775</v>
       </c>
       <c r="M4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="N4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="O4" t="n">
         <v>471.8000591907775</v>
       </c>
       <c r="P4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907775</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.4528020606777</v>
+        <v>176.4528020606778</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871682038809411</v>
+        <v>8.871682038809354</v>
       </c>
       <c r="D3" t="n">
         <v>7.502395135906255</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="C4" t="n">
-        <v>6.262471311747095</v>
+        <v>6.262471311747063</v>
       </c>
       <c r="D4" t="n">
         <v>7.876322888507602</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>252.2435017166814</v>
+        <v>252.2435017166813</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033945</v>
+        <v>31.26683315033937</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747209</v>
+        <v>6.262471311747063</v>
       </c>
       <c r="L4" t="n">
-        <v>7.876322888507502</v>
+        <v>7.87632288850773</v>
       </c>
       <c r="M4" t="n">
-        <v>174.1509301235021</v>
+        <v>174.150930123502</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="K4" t="n">
-        <v>6.262471311747095</v>
+        <v>6.262471311747063</v>
       </c>
       <c r="L4" t="n">
         <v>7.876322888507602</v>
@@ -31041,19 +31041,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7093579982338797</v>
+        <v>0.7093579982338799</v>
       </c>
       <c r="H2" t="n">
-        <v>7.264712599412722</v>
+        <v>7.264712599412724</v>
       </c>
       <c r="I2" t="n">
-        <v>27.34752422691167</v>
+        <v>27.34752422691168</v>
       </c>
       <c r="J2" t="n">
-        <v>60.2058734026028</v>
+        <v>60.20587340260282</v>
       </c>
       <c r="K2" t="n">
-        <v>90.23299746784294</v>
+        <v>90.23299746784296</v>
       </c>
       <c r="L2" t="n">
         <v>111.9420123062931</v>
@@ -31071,19 +31071,19 @@
         <v>102.0065668435298</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.60268353177892</v>
+        <v>76.60268353177895</v>
       </c>
       <c r="R2" t="n">
-        <v>44.55920935655898</v>
+        <v>44.55920935655899</v>
       </c>
       <c r="S2" t="n">
         <v>16.16449538475455</v>
       </c>
       <c r="T2" t="n">
-        <v>3.10521463726881</v>
+        <v>3.105214637268811</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05674863985871036</v>
+        <v>0.05674863985871038</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3795399893380615</v>
+        <v>0.3795399893380616</v>
       </c>
       <c r="H3" t="n">
-        <v>3.665557265449173</v>
+        <v>3.665557265449174</v>
       </c>
       <c r="I3" t="n">
         <v>13.06749524694642</v>
       </c>
       <c r="J3" t="n">
-        <v>35.85820574706659</v>
+        <v>35.85820574706661</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>82.40845250956463</v>
+        <v>82.40845250956465</v>
       </c>
       <c r="M3" t="n">
-        <v>88.8311168887568</v>
+        <v>88.83111688875682</v>
       </c>
       <c r="N3" t="n">
-        <v>84.46022654408937</v>
+        <v>84.46022654408939</v>
       </c>
       <c r="O3" t="n">
-        <v>89.01831215033937</v>
+        <v>89.0183121503394</v>
       </c>
       <c r="P3" t="n">
-        <v>57.96923306451484</v>
+        <v>57.96923306451485</v>
       </c>
       <c r="Q3" t="n">
-        <v>48.44794670918834</v>
+        <v>48.44794670918836</v>
       </c>
       <c r="R3" t="n">
-        <v>23.5647723204807</v>
+        <v>23.56477232048071</v>
       </c>
       <c r="S3" t="n">
-        <v>7.049788837046883</v>
+        <v>7.049788837046885</v>
       </c>
       <c r="T3" t="n">
-        <v>1.529812500884554</v>
+        <v>1.529812500884555</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02496973614066195</v>
+        <v>0.02496973614066196</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,43 +31199,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3181935774864679</v>
+        <v>0.318193577486468</v>
       </c>
       <c r="H4" t="n">
-        <v>2.829030170743326</v>
+        <v>2.829030170743327</v>
       </c>
       <c r="I4" t="n">
-        <v>9.568948675683966</v>
+        <v>9.56894867568397</v>
       </c>
       <c r="J4" t="n">
-        <v>22.49628592829328</v>
+        <v>22.49628592829329</v>
       </c>
       <c r="K4" t="n">
-        <v>36.96830836615509</v>
+        <v>36.9683083661551</v>
       </c>
       <c r="L4" t="n">
-        <v>47.30670696557907</v>
+        <v>47.30670696557908</v>
       </c>
       <c r="M4" t="n">
-        <v>49.87828960544697</v>
+        <v>49.87828960544698</v>
       </c>
       <c r="N4" t="n">
-        <v>48.69229536208835</v>
+        <v>48.69229536208837</v>
       </c>
       <c r="O4" t="n">
-        <v>44.97521584326914</v>
+        <v>44.97521584326915</v>
       </c>
       <c r="P4" t="n">
-        <v>38.48406686254516</v>
+        <v>38.48406686254518</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.64437311116233</v>
+        <v>26.64437311116234</v>
       </c>
       <c r="R4" t="n">
-        <v>14.30714031134609</v>
+        <v>14.3071403113461</v>
       </c>
       <c r="S4" t="n">
-        <v>5.545246254923262</v>
+        <v>5.545246254923264</v>
       </c>
       <c r="T4" t="n">
         <v>1.35955437653309</v>
@@ -31375,16 +31375,16 @@
         <v>86.55177910702935</v>
       </c>
       <c r="M6" t="n">
-        <v>70.70487847115847</v>
+        <v>95.09358820050389</v>
       </c>
       <c r="N6" t="n">
-        <v>90.72269785583646</v>
+        <v>88.1937624512672</v>
       </c>
       <c r="O6" t="n">
         <v>94.84242725419695</v>
       </c>
       <c r="P6" t="n">
-        <v>76.11940932757992</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>50.88380929463654</v>
@@ -31606,16 +31606,16 @@
         <v>39.18569627933594</v>
       </c>
       <c r="K9" t="n">
-        <v>66.97459634725922</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>68.07071205550251</v>
+        <v>90.05560996743537</v>
       </c>
       <c r="M9" t="n">
         <v>102.9699110890115</v>
       </c>
       <c r="N9" t="n">
-        <v>98.59902074434406</v>
+        <v>87.76293639505502</v>
       </c>
       <c r="O9" t="n">
         <v>98.68188413096588</v>
@@ -31758,13 +31758,13 @@
         <v>14.23493893063158</v>
       </c>
       <c r="I11" t="n">
-        <v>53.58647461229579</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J11" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K11" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L11" t="n">
         <v>219.3462834415373</v>
@@ -31776,7 +31776,7 @@
         <v>248.0142307569799</v>
       </c>
       <c r="O11" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P11" t="n">
         <v>199.8781410373231</v>
@@ -31785,13 +31785,13 @@
         <v>150.1001597896</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S11" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T11" t="n">
-        <v>6.084554636283631</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U11" t="n">
         <v>0.1111968865568681</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H12" t="n">
-        <v>7.182525544729739</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I12" t="n">
         <v>25.60527953048522</v>
@@ -31846,10 +31846,10 @@
         <v>120.0903919074999</v>
       </c>
       <c r="L12" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M12" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N12" t="n">
         <v>193.4226077551902</v>
@@ -31861,19 +31861,19 @@
         <v>142.0130777322631</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R12" t="n">
-        <v>46.17431045013361</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S12" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T12" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H13" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I13" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J13" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K13" t="n">
         <v>72.43804964886228</v>
       </c>
       <c r="L13" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M13" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N13" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O13" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P13" t="n">
         <v>75.40812304604566</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R13" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S13" t="n">
         <v>10.86570744732934</v>
@@ -31995,13 +31995,13 @@
         <v>14.23493893063158</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229579</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K14" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L14" t="n">
         <v>219.3462834415373</v>
@@ -32013,7 +32013,7 @@
         <v>248.0142307569799</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P14" t="n">
         <v>199.8781410373231</v>
@@ -32022,13 +32022,13 @@
         <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T14" t="n">
-        <v>6.084554636283631</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568681</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729739</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I15" t="n">
         <v>25.60527953048522</v>
@@ -32083,10 +32083,10 @@
         <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N15" t="n">
         <v>193.4226077551902</v>
@@ -32098,19 +32098,19 @@
         <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R15" t="n">
-        <v>46.17431045013361</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S15" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K16" t="n">
         <v>72.43804964886228</v>
       </c>
       <c r="L16" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P16" t="n">
         <v>75.40812304604566</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S16" t="n">
         <v>10.86570744732934</v>
@@ -32232,13 +32232,13 @@
         <v>14.23493893063158</v>
       </c>
       <c r="I17" t="n">
-        <v>53.58647461229579</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J17" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K17" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L17" t="n">
         <v>219.3462834415373</v>
@@ -32250,7 +32250,7 @@
         <v>248.0142307569799</v>
       </c>
       <c r="O17" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P17" t="n">
         <v>199.8781410373231</v>
@@ -32259,13 +32259,13 @@
         <v>150.1001597896</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472343</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S17" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T17" t="n">
-        <v>6.084554636283631</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U17" t="n">
         <v>0.1111968865568681</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7436947430510356</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H18" t="n">
-        <v>7.182525544729739</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I18" t="n">
         <v>25.60527953048522</v>
@@ -32320,10 +32320,10 @@
         <v>120.0903919074999</v>
       </c>
       <c r="L18" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M18" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N18" t="n">
         <v>193.4226077551902</v>
@@ -32335,19 +32335,19 @@
         <v>142.0130777322631</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.931981586655</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R18" t="n">
-        <v>46.17431045013361</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S18" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T18" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04892728572704183</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6234886902484235</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H19" t="n">
-        <v>5.543381264208714</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I19" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J19" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K19" t="n">
         <v>72.43804964886228</v>
       </c>
       <c r="L19" t="n">
-        <v>92.6957640029338</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M19" t="n">
-        <v>97.73468623594148</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N19" t="n">
-        <v>95.41077384501563</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O19" t="n">
-        <v>88.12729232711355</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P19" t="n">
         <v>75.40812304604566</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.20867568980208</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R19" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S19" t="n">
         <v>10.86570744732934</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.096607794625811</v>
+        <v>1.096607794625839</v>
       </c>
       <c r="L2" t="n">
-        <v>16.45661424344824</v>
+        <v>16.45661424344827</v>
       </c>
       <c r="M2" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="O2" t="n">
-        <v>26.32906679914555</v>
+        <v>26.32906679914559</v>
       </c>
       <c r="P2" t="n">
-        <v>8.357203562645608</v>
+        <v>8.357203562645637</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26.29392869871558</v>
+        <v>26.2939286987156</v>
       </c>
       <c r="M3" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="N3" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26683315033937</v>
+        <v>31.2668331503394</v>
       </c>
       <c r="P3" t="n">
-        <v>3.709598061711092</v>
+        <v>3.709598061711106</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>30.4372552961803</v>
       </c>
       <c r="M6" t="n">
-        <v>13.14059473274104</v>
+        <v>37.52930446208646</v>
       </c>
       <c r="N6" t="n">
-        <v>37.52930446208646</v>
+        <v>35.00036905751721</v>
       </c>
       <c r="O6" t="n">
         <v>37.09094825419695</v>
       </c>
       <c r="P6" t="n">
-        <v>21.85977432477617</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>11.14881356264383</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>11.95618824465346</v>
+        <v>33.94108615658632</v>
       </c>
       <c r="M9" t="n">
         <v>45.40562735059407</v>
       </c>
       <c r="N9" t="n">
-        <v>45.40562735059407</v>
+        <v>34.56954300130502</v>
       </c>
       <c r="O9" t="n">
         <v>40.93040513096589</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K11" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L11" t="n">
         <v>123.8608853786925</v>
       </c>
       <c r="M11" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N11" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O11" t="n">
         <v>141.0030296224485</v>
@@ -35430,7 +35430,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>18.89360532308051</v>
       </c>
       <c r="K12" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L12" t="n">
         <v>105.3618281836313</v>
@@ -35506,10 +35506,10 @@
         <v>119.1924189223225</v>
       </c>
       <c r="P12" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>20.18768008979545</v>
       </c>
       <c r="L13" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M13" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N13" t="n">
-        <v>43.69812833659618</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O13" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P13" t="n">
         <v>19.62828140614088</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L14" t="n">
         <v>123.8608853786925</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O14" t="n">
         <v>141.0030296224485</v>
@@ -35667,7 +35667,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>18.89360532308051</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L15" t="n">
         <v>105.3618281836313</v>
@@ -35743,10 +35743,10 @@
         <v>119.1924189223225</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>20.18768008979545</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M16" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N16" t="n">
-        <v>43.69812833659618</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O16" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P16" t="n">
         <v>19.62828140614088</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.64761804676699</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K17" t="n">
-        <v>87.67187230626071</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L17" t="n">
         <v>123.8608853786925</v>
       </c>
       <c r="M17" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N17" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O17" t="n">
         <v>141.0030296224485</v>
@@ -35904,7 +35904,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>18.89360532308051</v>
       </c>
       <c r="K18" t="n">
-        <v>64.26460912288451</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L18" t="n">
         <v>105.3618281836313</v>
@@ -35980,10 +35980,10 @@
         <v>119.1924189223225</v>
       </c>
       <c r="P18" t="n">
-        <v>87.75344272945935</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.23936308181628</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>20.18768008979545</v>
       </c>
       <c r="L19" t="n">
-        <v>38.06747010903229</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M19" t="n">
-        <v>41.46974373716144</v>
+        <v>41.46974373716147</v>
       </c>
       <c r="N19" t="n">
-        <v>43.69812833659618</v>
+        <v>43.6981283365962</v>
       </c>
       <c r="O19" t="n">
-        <v>32.05239425411722</v>
+        <v>32.05239425411724</v>
       </c>
       <c r="P19" t="n">
         <v>19.62828140614088</v>
